--- a/Assets/8_Data/4_PetData.xlsx
+++ b/Assets/8_Data/4_PetData.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity_Game\Evolver\Assets\8_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nghia\Documents\Evolver\Assets\8_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE23877E-E13E-4247-9B15-4C1E09630DED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="6870" windowHeight="11985"/>
+    <workbookView xWindow="-28920" yWindow="-15" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_Pet_Bunny" sheetId="1" r:id="rId1"/>
@@ -26,22 +27,33 @@
     <sheet name="Data_Pet_WolfCute" sheetId="12" r:id="rId12"/>
     <sheet name="Data_Pet_WolfPup" sheetId="13" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Windows User</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -65,7 +77,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -89,7 +101,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -113,7 +125,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0">
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -137,7 +149,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0" shapeId="0">
+    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -167,12 +179,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Windows User</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -196,7 +208,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -220,7 +232,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -244,7 +256,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
         <r>
           <rPr>
@@ -274,12 +286,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Windows User</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -303,7 +315,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -327,7 +339,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -351,7 +363,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -381,7 +393,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="41">
   <si>
     <t>Name</t>
   </si>
@@ -438,9 +450,6 @@
   </si>
   <si>
     <t>Spider</t>
-  </si>
-  <si>
-    <t>Bunny</t>
   </si>
   <si>
     <t>{1,3,4}</t>
@@ -512,7 +521,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -870,52 +879,51 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R17" sqref="R17"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="27.28515625" customWidth="1"/>
-    <col min="24" max="24" width="15.28515625" customWidth="1"/>
-    <col min="25" max="25" width="12.7109375" customWidth="1"/>
-    <col min="26" max="26" width="15.140625" customWidth="1"/>
-    <col min="27" max="27" width="16.42578125" customWidth="1"/>
-    <col min="28" max="28" width="22.42578125" customWidth="1"/>
-    <col min="29" max="29" width="25.28515625" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="27.33203125" customWidth="1"/>
+    <col min="23" max="23" width="15.33203125" customWidth="1"/>
+    <col min="24" max="24" width="12.6640625" customWidth="1"/>
+    <col min="25" max="25" width="15.109375" customWidth="1"/>
+    <col min="26" max="26" width="16.44140625" customWidth="1"/>
+    <col min="27" max="27" width="22.44140625" customWidth="1"/>
+    <col min="28" max="28" width="25.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="C1" t="s">
         <v>35</v>
@@ -927,7 +935,7 @@
         <v>37</v>
       </c>
       <c r="F1" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="G1" t="s">
         <v>26</v>
@@ -954,263 +962,555 @@
         <v>33</v>
       </c>
       <c r="O1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="P1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q1" t="s">
         <v>39</v>
       </c>
-      <c r="Q1" t="s">
-        <v>41</v>
-      </c>
       <c r="R1" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="S1" t="s">
         <v>22</v>
       </c>
-      <c r="T1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>19</v>
+      <c r="C2" t="s">
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>19</v>
+      <c r="B3">
+        <v>10</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>6</v>
+      </c>
+      <c r="F3">
+        <f>B3*1.2</f>
+        <v>12</v>
+      </c>
+      <c r="G3">
         <v>10</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>6</v>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>6</v>
+      </c>
+      <c r="J3">
+        <v>3</v>
+      </c>
+      <c r="K3">
+        <v>10</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>6</v>
+      </c>
+      <c r="N3">
+        <v>3</v>
+      </c>
+      <c r="O3">
+        <v>10</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>6</v>
+      </c>
+      <c r="R3">
+        <v>10</v>
       </c>
       <c r="S3">
-        <v>10</v>
-      </c>
-      <c r="T3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>19</v>
+      <c r="B4">
+        <v>4</v>
       </c>
       <c r="C4">
+        <v>15</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>6</v>
+      </c>
+      <c r="F4">
         <v>4</v>
       </c>
-      <c r="D4">
+      <c r="G4">
         <v>15</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>6</v>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>6</v>
+      </c>
+      <c r="J4">
+        <v>4</v>
+      </c>
+      <c r="K4">
+        <v>15</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>6</v>
+      </c>
+      <c r="N4">
+        <v>4</v>
+      </c>
+      <c r="O4">
+        <v>15</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>6</v>
+      </c>
+      <c r="R4">
+        <v>20</v>
       </c>
       <c r="S4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
         <v>20</v>
       </c>
-      <c r="T4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5">
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>6</v>
+      </c>
+      <c r="F5">
         <v>5</v>
       </c>
-      <c r="D5">
+      <c r="G5">
         <v>20</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>6</v>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>6</v>
+      </c>
+      <c r="J5">
+        <v>5</v>
+      </c>
+      <c r="K5">
+        <v>20</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>6</v>
+      </c>
+      <c r="N5">
+        <v>5</v>
+      </c>
+      <c r="O5">
+        <v>20</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>6</v>
+      </c>
+      <c r="R5">
+        <v>30</v>
       </c>
       <c r="S5">
-        <v>30</v>
-      </c>
-      <c r="T5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>19</v>
+      <c r="B6">
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>6</v>
+      </c>
+      <c r="F6">
+        <v>6</v>
+      </c>
+      <c r="G6">
         <v>25</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>6</v>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>6</v>
+      </c>
+      <c r="J6">
+        <v>6</v>
+      </c>
+      <c r="K6">
+        <v>25</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>6</v>
+      </c>
+      <c r="N6">
+        <v>6</v>
+      </c>
+      <c r="O6">
+        <v>25</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>6</v>
+      </c>
+      <c r="R6">
+        <v>40</v>
       </c>
       <c r="S6">
-        <v>40</v>
-      </c>
-      <c r="T6">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>19</v>
+      <c r="B7">
+        <v>7</v>
       </c>
       <c r="C7">
+        <v>30</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7">
         <v>7</v>
       </c>
-      <c r="D7">
+      <c r="G7">
         <v>30</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>6</v>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>6</v>
+      </c>
+      <c r="J7">
+        <v>7</v>
+      </c>
+      <c r="K7">
+        <v>30</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>6</v>
+      </c>
+      <c r="N7">
+        <v>7</v>
+      </c>
+      <c r="O7">
+        <v>30</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>6</v>
+      </c>
+      <c r="R7">
+        <v>50</v>
       </c>
       <c r="S7">
-        <v>50</v>
-      </c>
-      <c r="T7">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
-        <v>19</v>
+      <c r="B8">
+        <v>8</v>
       </c>
       <c r="C8">
+        <v>35</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>6</v>
+      </c>
+      <c r="F8">
         <v>8</v>
       </c>
-      <c r="D8">
+      <c r="G8">
         <v>35</v>
       </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>6</v>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>6</v>
+      </c>
+      <c r="J8">
+        <v>8</v>
+      </c>
+      <c r="K8">
+        <v>35</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>6</v>
+      </c>
+      <c r="N8">
+        <v>8</v>
+      </c>
+      <c r="O8">
+        <v>35</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>6</v>
+      </c>
+      <c r="R8">
+        <v>12</v>
       </c>
       <c r="S8">
-        <v>12</v>
-      </c>
-      <c r="T8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
-        <v>19</v>
+      <c r="B9">
+        <v>9</v>
       </c>
       <c r="C9">
+        <v>40</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>6</v>
+      </c>
+      <c r="F9">
         <v>9</v>
       </c>
-      <c r="D9">
+      <c r="G9">
         <v>40</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>6</v>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>6</v>
+      </c>
+      <c r="J9">
+        <v>9</v>
+      </c>
+      <c r="K9">
+        <v>40</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>6</v>
+      </c>
+      <c r="N9">
+        <v>9</v>
+      </c>
+      <c r="O9">
+        <v>40</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>6</v>
+      </c>
+      <c r="R9">
+        <v>12</v>
       </c>
       <c r="S9">
-        <v>12</v>
-      </c>
-      <c r="T9">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
-        <v>19</v>
+      <c r="B10">
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>6</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
         <v>45</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>6</v>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>6</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>45</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>6</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>45</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>6</v>
+      </c>
+      <c r="R10">
+        <v>12</v>
       </c>
       <c r="S10">
-        <v>12</v>
-      </c>
-      <c r="T10">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
-        <v>19</v>
+      <c r="B11">
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>6</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
         <v>50</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>6</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>50</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>6</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>50</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
         <v>6</v>
       </c>
     </row>
@@ -1221,78 +1521,78 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P4" sqref="N1:P4"/>
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="5" width="17.42578125" customWidth="1"/>
-    <col min="6" max="6" width="28.42578125" customWidth="1"/>
-    <col min="7" max="7" width="20.85546875" customWidth="1"/>
-    <col min="8" max="9" width="27.28515625" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" customWidth="1"/>
-    <col min="13" max="13" width="16.42578125" customWidth="1"/>
-    <col min="14" max="14" width="22.42578125" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" customWidth="1"/>
+    <col min="4" max="5" width="17.44140625" customWidth="1"/>
+    <col min="6" max="6" width="28.44140625" customWidth="1"/>
+    <col min="7" max="7" width="20.88671875" customWidth="1"/>
+    <col min="8" max="9" width="27.33203125" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" customWidth="1"/>
+    <col min="12" max="12" width="15.109375" customWidth="1"/>
+    <col min="13" max="13" width="16.44140625" customWidth="1"/>
+    <col min="14" max="14" width="22.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1303,25 +1603,25 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
         <v>21</v>
       </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1341,7 +1641,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1352,7 +1652,7 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3">
         <v>10</v>
@@ -1370,7 +1670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1381,7 +1681,7 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>15</v>
@@ -1399,7 +1699,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1410,7 +1710,7 @@
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5">
         <v>20</v>
@@ -1428,7 +1728,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1439,7 +1739,7 @@
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <v>25</v>
@@ -1457,7 +1757,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1468,7 +1768,7 @@
         <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7">
         <v>30</v>
@@ -1486,7 +1786,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1497,7 +1797,7 @@
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E8">
         <v>35</v>
@@ -1515,7 +1815,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1526,7 +1826,7 @@
         <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E9">
         <v>40</v>
@@ -1544,7 +1844,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1555,7 +1855,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E10">
         <v>45</v>
@@ -1573,7 +1873,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1584,7 +1884,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E11">
         <v>50</v>
@@ -1600,30 +1900,30 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="5" width="17.42578125" customWidth="1"/>
-    <col min="6" max="6" width="28.42578125" customWidth="1"/>
-    <col min="7" max="7" width="20.85546875" customWidth="1"/>
-    <col min="8" max="9" width="27.28515625" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" customWidth="1"/>
-    <col min="13" max="13" width="16.42578125" customWidth="1"/>
-    <col min="14" max="14" width="22.42578125" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" customWidth="1"/>
+    <col min="4" max="5" width="17.44140625" customWidth="1"/>
+    <col min="6" max="6" width="28.44140625" customWidth="1"/>
+    <col min="7" max="7" width="20.88671875" customWidth="1"/>
+    <col min="8" max="9" width="27.33203125" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" customWidth="1"/>
+    <col min="12" max="12" width="15.109375" customWidth="1"/>
+    <col min="13" max="13" width="16.44140625" customWidth="1"/>
+    <col min="14" max="14" width="22.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1634,25 +1934,25 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
         <v>21</v>
       </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1672,7 +1972,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1683,7 +1983,7 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3">
         <v>10</v>
@@ -1701,7 +2001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1712,7 +2012,7 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>15</v>
@@ -1730,7 +2030,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1741,7 +2041,7 @@
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5">
         <v>20</v>
@@ -1759,7 +2059,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1770,7 +2070,7 @@
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <v>25</v>
@@ -1788,7 +2088,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1799,7 +2099,7 @@
         <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7">
         <v>30</v>
@@ -1817,7 +2117,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1828,7 +2128,7 @@
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E8">
         <v>35</v>
@@ -1846,7 +2146,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1857,7 +2157,7 @@
         <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E9">
         <v>40</v>
@@ -1875,7 +2175,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1886,7 +2186,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E10">
         <v>45</v>
@@ -1904,7 +2204,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1915,7 +2215,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E11">
         <v>50</v>
@@ -1931,30 +2231,30 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="5" width="17.42578125" customWidth="1"/>
-    <col min="6" max="6" width="28.42578125" customWidth="1"/>
-    <col min="7" max="7" width="20.85546875" customWidth="1"/>
-    <col min="8" max="9" width="27.28515625" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" customWidth="1"/>
-    <col min="13" max="13" width="16.42578125" customWidth="1"/>
-    <col min="14" max="14" width="22.42578125" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" customWidth="1"/>
+    <col min="4" max="5" width="17.44140625" customWidth="1"/>
+    <col min="6" max="6" width="28.44140625" customWidth="1"/>
+    <col min="7" max="7" width="20.88671875" customWidth="1"/>
+    <col min="8" max="9" width="27.33203125" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" customWidth="1"/>
+    <col min="12" max="12" width="15.109375" customWidth="1"/>
+    <col min="13" max="13" width="16.44140625" customWidth="1"/>
+    <col min="14" max="14" width="22.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1998,7 +2298,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2042,7 +2342,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2074,7 +2374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2106,7 +2406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2138,7 +2438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2170,7 +2470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2202,7 +2502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2234,7 +2534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2266,7 +2566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2298,7 +2598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2336,62 +2636,62 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
